--- a/src/test/java/testData/loginmngr.xlsx
+++ b/src/test/java/testData/loginmngr.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88907289-56E8-45A0-9BED-E903B9B9FC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3932DEA-2318-40E8-A22D-075987FFD06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19460" windowHeight="11060" xr2:uid="{9CB3B7A0-CAC5-492D-8418-6859518C0A83}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" xr2:uid="{9CB3B7A0-CAC5-492D-8418-6859518C0A83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -49,22 +41,25 @@
     <t>fdfdfgdf</t>
   </si>
   <si>
-    <t>magr57897</t>
-  </si>
-  <si>
-    <t>gfdgdfg</t>
-  </si>
-  <si>
-    <t>magr34525</t>
-  </si>
-  <si>
-    <t>dsfsdfffs</t>
-  </si>
-  <si>
     <t>mngr421582</t>
   </si>
   <si>
     <t>YzUqasu</t>
+  </si>
+  <si>
+    <t>mngr429138</t>
+  </si>
+  <si>
+    <t>nEnasYh</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -127,12 +122,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,75 +446,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313FE398-751A-449F-A844-E0638819B779}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE49432-6711-49E7-9C97-C86369EBE96C}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
